--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.51</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.464</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.572</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.658</v>
+        <v>0.581</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.383</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.454</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.698</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.412</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.605</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.459</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.725</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.663</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.275</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.652</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.101</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.946</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.884</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -788,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.495</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.716</v>
+        <v>0.881</v>
       </c>
       <c r="C2">
-        <v>0.262</v>
+        <v>0.202</v>
       </c>
       <c r="D2">
-        <v>0.643</v>
+        <v>0.593</v>
       </c>
       <c r="E2">
-        <v>0.779</v>
+        <v>0.197</v>
       </c>
       <c r="F2">
-        <v>0.352</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.149</v>
+        <v>0.765</v>
       </c>
       <c r="C3">
-        <v>0.224</v>
+        <v>0.319</v>
       </c>
       <c r="D3">
-        <v>0.058</v>
+        <v>0.317</v>
       </c>
       <c r="E3">
-        <v>0.421</v>
+        <v>0.29</v>
       </c>
       <c r="F3">
-        <v>0.184</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.065</v>
+        <v>0.474</v>
       </c>
       <c r="C4">
-        <v>0.872</v>
+        <v>0.477</v>
       </c>
       <c r="D4">
-        <v>0.694</v>
+        <v>0.641</v>
       </c>
       <c r="E4">
-        <v>0.043</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F4">
-        <v>0.424</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.999</v>
+        <v>0.35</v>
       </c>
       <c r="C5">
-        <v>0.142</v>
+        <v>0.823</v>
       </c>
       <c r="D5">
-        <v>0.588</v>
+        <v>0.002</v>
       </c>
       <c r="E5">
-        <v>0.426</v>
+        <v>0.483</v>
       </c>
       <c r="F5">
-        <v>0.519</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.653</v>
+        <v>0.778</v>
       </c>
       <c r="C6">
-        <v>0.787</v>
+        <v>0.302</v>
       </c>
       <c r="D6">
-        <v>0.8070000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="E6">
-        <v>0.9350000000000001</v>
+        <v>0.282</v>
       </c>
       <c r="F6">
-        <v>0.039</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.479</v>
+        <v>0.834</v>
       </c>
       <c r="C7">
-        <v>0.602</v>
+        <v>0.717</v>
       </c>
       <c r="D7">
-        <v>0.903</v>
+        <v>0.114</v>
       </c>
       <c r="E7">
-        <v>0.442</v>
+        <v>0.206</v>
       </c>
       <c r="F7">
-        <v>0.827</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.291</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>0.67</v>
+        <v>0.538</v>
       </c>
       <c r="D8">
-        <v>0.128</v>
+        <v>0.635</v>
       </c>
       <c r="E8">
-        <v>0.891</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
-        <v>0.19</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.652</v>
+        <v>0.909</v>
       </c>
       <c r="C9">
-        <v>0.175</v>
+        <v>0.923</v>
       </c>
       <c r="D9">
-        <v>0.287</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E9">
-        <v>0.65</v>
+        <v>0.364</v>
       </c>
       <c r="F9">
-        <v>0.29</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C10">
-        <v>0.338</v>
+        <v>0.027</v>
       </c>
       <c r="D10">
-        <v>0.678</v>
+        <v>0.823</v>
       </c>
       <c r="E10">
-        <v>0.258</v>
+        <v>0.848</v>
       </c>
       <c r="F10">
-        <v>0.073</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.508</v>
+        <v>0.623</v>
       </c>
       <c r="C11">
-        <v>0.194</v>
+        <v>0.152</v>
       </c>
       <c r="D11">
-        <v>0.442</v>
+        <v>0.407</v>
       </c>
       <c r="E11">
-        <v>0.534</v>
+        <v>0.126</v>
       </c>
       <c r="F11">
-        <v>0.19</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.104</v>
+        <v>0.535</v>
       </c>
       <c r="C12">
-        <v>0.157</v>
+        <v>0.223</v>
       </c>
       <c r="D12">
-        <v>0.041</v>
+        <v>0.222</v>
       </c>
       <c r="E12">
-        <v>0.295</v>
+        <v>0.203</v>
       </c>
       <c r="F12">
-        <v>0.129</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.04</v>
+        <v>0.326</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>0.324</v>
       </c>
       <c r="D13">
-        <v>0.486</v>
+        <v>0.449</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0.665</v>
       </c>
       <c r="F13">
-        <v>0.312</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6870000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="C14">
-        <v>0.079</v>
+        <v>0.556</v>
       </c>
       <c r="D14">
-        <v>0.418</v>
+        <v>0.008</v>
       </c>
       <c r="E14">
-        <v>0.342</v>
+        <v>0.382</v>
       </c>
       <c r="F14">
-        <v>0.385</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.44</v>
+        <v>0.527</v>
       </c>
       <c r="C15">
-        <v>0.522</v>
+        <v>0.183</v>
       </c>
       <c r="D15">
-        <v>0.5570000000000001</v>
+        <v>0.237</v>
       </c>
       <c r="E15">
-        <v>0.647</v>
+        <v>0.19</v>
       </c>
       <c r="F15">
-        <v>0.05</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.313</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C16">
-        <v>0.383</v>
+        <v>0.463</v>
       </c>
       <c r="D16">
-        <v>0.632</v>
+        <v>0.08</v>
       </c>
       <c r="E16">
-        <v>0.354</v>
+        <v>0.188</v>
       </c>
       <c r="F16">
-        <v>0.602</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.174</v>
+        <v>0.335</v>
       </c>
       <c r="C17">
-        <v>0.422</v>
+        <v>0.33</v>
       </c>
       <c r="D17">
-        <v>0.09</v>
+        <v>0.444</v>
       </c>
       <c r="E17">
-        <v>0.6889999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F17">
-        <v>0.157</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.422</v>
+        <v>0.602</v>
       </c>
       <c r="C18">
-        <v>0.067</v>
+        <v>0.591</v>
       </c>
       <c r="D18">
-        <v>0.201</v>
+        <v>0.573</v>
       </c>
       <c r="E18">
-        <v>0.543</v>
+        <v>0.343</v>
       </c>
       <c r="F18">
-        <v>0.227</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.527</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C19">
-        <v>0.173</v>
+        <v>-0.045</v>
       </c>
       <c r="D19">
-        <v>0.475</v>
+        <v>0.576</v>
       </c>
       <c r="E19">
-        <v>0.238</v>
+        <v>0.651</v>
       </c>
       <c r="F19">
-        <v>0.076</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.466</v>
+        <v>-0.276</v>
       </c>
       <c r="C20">
-        <v>0.137</v>
+        <v>0.73</v>
       </c>
       <c r="D20">
-        <v>0.268</v>
+        <v>0.228</v>
       </c>
       <c r="E20">
-        <v>-0.6820000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>-0.01</v>
+        <v>-0.389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.252</v>
+        <v>-0.125</v>
       </c>
       <c r="C21">
-        <v>0.26</v>
+        <v>0.465</v>
       </c>
       <c r="D21">
-        <v>1.22</v>
+        <v>0.671</v>
       </c>
       <c r="E21">
-        <v>-0.08599999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="F21">
-        <v>0.106</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.362</v>
+        <v>0.245</v>
       </c>
       <c r="C22">
-        <v>-1.339</v>
+        <v>0.093</v>
       </c>
       <c r="D22">
-        <v>0.173</v>
+        <v>0.137</v>
       </c>
       <c r="E22">
-        <v>0.547</v>
+        <v>-1.046</v>
       </c>
       <c r="F22">
-        <v>-0.059</v>
+        <v>-0.301</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.806</v>
+        <v>0.405</v>
       </c>
       <c r="C23">
-        <v>0.519</v>
+        <v>-0.749</v>
       </c>
       <c r="D23">
-        <v>0.339</v>
+        <v>1.181</v>
       </c>
       <c r="E23">
-        <v>-0.157</v>
+        <v>-0.32</v>
       </c>
       <c r="F23">
-        <v>-0.125</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.368</v>
+        <v>-0.128</v>
       </c>
       <c r="C24">
-        <v>-1.078</v>
+        <v>0.58</v>
       </c>
       <c r="D24">
-        <v>-0.002</v>
+        <v>0.628</v>
       </c>
       <c r="E24">
-        <v>-0.954</v>
+        <v>0.098</v>
       </c>
       <c r="F24">
-        <v>0.207</v>
+        <v>-0.201</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.145</v>
+        <v>-0.194</v>
       </c>
       <c r="C25">
-        <v>-0.589</v>
+        <v>-0.434</v>
       </c>
       <c r="D25">
-        <v>-0.17</v>
+        <v>1.005</v>
       </c>
       <c r="E25">
-        <v>-0.186</v>
+        <v>0.155</v>
       </c>
       <c r="F25">
-        <v>-0.337</v>
+        <v>-0.538</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.097</v>
+        <v>0.205</v>
       </c>
       <c r="C26">
-        <v>-0.737</v>
+        <v>0.034</v>
       </c>
       <c r="D26">
-        <v>1.105</v>
+        <v>0.149</v>
       </c>
       <c r="E26">
-        <v>-0.984</v>
+        <v>0.339</v>
       </c>
       <c r="F26">
-        <v>0.103</v>
+        <v>-0.597</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.353</v>
+        <v>-0.279</v>
       </c>
       <c r="C27">
-        <v>0.527</v>
+        <v>-0.91</v>
       </c>
       <c r="D27">
-        <v>0.844</v>
+        <v>-0.154</v>
       </c>
       <c r="E27">
-        <v>-0.604</v>
+        <v>-0.18</v>
       </c>
       <c r="F27">
-        <v>0.033</v>
+        <v>-0.134</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.547</v>
+        <v>0.641</v>
       </c>
       <c r="C28">
-        <v>0.139</v>
+        <v>1.362</v>
       </c>
       <c r="D28">
-        <v>0.199</v>
+        <v>-0.161</v>
       </c>
       <c r="E28">
-        <v>0.111</v>
+        <v>-0.964</v>
       </c>
       <c r="F28">
-        <v>0.183</v>
+        <v>-0.404</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.164</v>
+        <v>-0.1</v>
       </c>
       <c r="C29">
-        <v>-0.268</v>
+        <v>0.306</v>
       </c>
       <c r="D29">
-        <v>0.073</v>
+        <v>0.639</v>
       </c>
       <c r="E29">
-        <v>0.411</v>
+        <v>0.002</v>
       </c>
       <c r="F29">
-        <v>-0.048</v>
+        <v>-0.318</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.243</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="C30">
-        <v>-0.368</v>
+        <v>0.508</v>
       </c>
       <c r="D30">
-        <v>0.698</v>
+        <v>0.42</v>
       </c>
       <c r="E30">
-        <v>0.656</v>
+        <v>0.081</v>
       </c>
       <c r="F30">
-        <v>0.067</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.253</v>
+        <v>-0.045</v>
       </c>
       <c r="C31">
-        <v>-0.9370000000000001</v>
+        <v>0.792</v>
       </c>
       <c r="D31">
-        <v>0.121</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E31">
-        <v>0.383</v>
+        <v>-0.4</v>
       </c>
       <c r="F31">
-        <v>-0.041</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.22</v>
+        <v>-0.029</v>
       </c>
       <c r="C32">
-        <v>-0.578</v>
+        <v>0.763</v>
       </c>
       <c r="D32">
-        <v>0.039</v>
+        <v>1.108</v>
       </c>
       <c r="E32">
-        <v>0.696</v>
+        <v>0.262</v>
       </c>
       <c r="F32">
-        <v>-0.08400000000000001</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.169</v>
+        <v>-0.09</v>
       </c>
       <c r="C33">
-        <v>-0.755</v>
+        <v>0.406</v>
       </c>
       <c r="D33">
-        <v>0.207</v>
+        <v>0.44</v>
       </c>
       <c r="E33">
-        <v>0.221</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F33">
-        <v>0.151</v>
+        <v>-0.141</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.192</v>
+        <v>-0.099</v>
       </c>
       <c r="C34">
-        <v>-0.412</v>
+        <v>1.188</v>
       </c>
       <c r="D34">
-        <v>0.291</v>
+        <v>0.985</v>
       </c>
       <c r="E34">
-        <v>0.709</v>
+        <v>0.055</v>
       </c>
       <c r="F34">
-        <v>-0.233</v>
+        <v>-0.378</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.218</v>
+        <v>-0.056</v>
       </c>
       <c r="C35">
-        <v>-0.516</v>
+        <v>0.822</v>
       </c>
       <c r="D35">
-        <v>0.617</v>
+        <v>0.679</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="F35">
-        <v>0.078</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.166</v>
+        <v>-0.112</v>
       </c>
       <c r="C36">
-        <v>-0.599</v>
+        <v>0.65</v>
       </c>
       <c r="D36">
-        <v>0.435</v>
+        <v>0.829</v>
       </c>
       <c r="E36">
-        <v>0.466</v>
+        <v>0.21</v>
       </c>
       <c r="F36">
-        <v>0.029</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.144</v>
+        <v>-0.01</v>
       </c>
       <c r="C37">
-        <v>-0.302</v>
+        <v>1.013</v>
       </c>
       <c r="D37">
-        <v>0.108</v>
+        <v>0.833</v>
       </c>
       <c r="E37">
-        <v>0.582</v>
+        <v>-0.343</v>
       </c>
       <c r="F37">
-        <v>0.135</v>
+        <v>-0.283</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.644</v>
+        <v>0.43</v>
       </c>
       <c r="C38">
-        <v>-0.206</v>
+        <v>0.548</v>
       </c>
       <c r="D38">
-        <v>-0.059</v>
+        <v>0.447</v>
       </c>
       <c r="E38">
-        <v>0.931</v>
+        <v>-0.158</v>
       </c>
       <c r="F38">
-        <v>-0.017</v>
+        <v>-0.223</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="C39">
-        <v>-0.258</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D39">
-        <v>0.489</v>
+        <v>0.294</v>
       </c>
       <c r="E39">
-        <v>0.459</v>
+        <v>-0.053</v>
       </c>
       <c r="F39">
-        <v>0.047</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.097</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C40">
-        <v>-0.858</v>
+        <v>0.888</v>
       </c>
       <c r="D40">
-        <v>-0.011</v>
+        <v>0.479</v>
       </c>
       <c r="E40">
-        <v>0.548</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F40">
-        <v>0.025</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.447</v>
+        <v>-0.02</v>
       </c>
       <c r="C41">
-        <v>-0.366</v>
+        <v>0.534</v>
       </c>
       <c r="D41">
-        <v>-0.096</v>
+        <v>0.776</v>
       </c>
       <c r="E41">
-        <v>0.501</v>
+        <v>0.183</v>
       </c>
       <c r="F41">
-        <v>0.017</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.577</v>
+        <v>0.331</v>
       </c>
       <c r="C42">
-        <v>-0.731</v>
+        <v>0.618</v>
       </c>
       <c r="D42">
-        <v>0.078</v>
+        <v>0.308</v>
       </c>
       <c r="E42">
-        <v>1.162</v>
+        <v>-0.067</v>
       </c>
       <c r="F42">
-        <v>0.083</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.43</v>
+        <v>0.374</v>
       </c>
       <c r="C43">
-        <v>-0.491</v>
+        <v>1.165</v>
       </c>
       <c r="D43">
-        <v>0.164</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E43">
-        <v>0.517</v>
+        <v>-0.104</v>
       </c>
       <c r="F43">
-        <v>-0.024</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="C44">
-        <v>-0.5639999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="D44">
-        <v>0.432</v>
+        <v>0.475</v>
       </c>
       <c r="E44">
-        <v>1.188</v>
+        <v>-0.216</v>
       </c>
       <c r="F44">
-        <v>0.063</v>
+        <v>-0.294</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5659999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="C45">
-        <v>-0.364</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D45">
-        <v>0.304</v>
+        <v>0.58</v>
       </c>
       <c r="E45">
-        <v>0.864</v>
+        <v>0.097</v>
       </c>
       <c r="F45">
-        <v>0.05</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6929999999999999</v>
+        <v>-0.179</v>
       </c>
       <c r="C46">
-        <v>-0.195</v>
+        <v>1.043</v>
       </c>
       <c r="D46">
-        <v>-0.024</v>
+        <v>0.583</v>
       </c>
       <c r="E46">
-        <v>0.338</v>
+        <v>0.109</v>
       </c>
       <c r="F46">
-        <v>0.08</v>
+        <v>-0.198</v>
       </c>
     </row>
   </sheetData>
@@ -2332,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.556</v>
+        <v>0.671</v>
       </c>
       <c r="C11">
-        <v>0.241</v>
+        <v>0.199</v>
       </c>
       <c r="D11">
-        <v>0.512</v>
+        <v>0.477</v>
       </c>
       <c r="E11">
-        <v>0.621</v>
+        <v>0.213</v>
       </c>
       <c r="F11">
-        <v>0.38</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2352,19 +2352,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.157</v>
+        <v>0.588</v>
       </c>
       <c r="C12">
-        <v>0.209</v>
+        <v>0.275</v>
       </c>
       <c r="D12">
-        <v>0.107</v>
+        <v>0.288</v>
       </c>
       <c r="E12">
-        <v>0.376</v>
+        <v>0.284</v>
       </c>
       <c r="F12">
-        <v>0.187</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2372,19 +2372,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.097</v>
+        <v>0.383</v>
       </c>
       <c r="C13">
-        <v>0.657</v>
+        <v>0.381</v>
       </c>
       <c r="D13">
-        <v>0.552</v>
+        <v>0.515</v>
       </c>
       <c r="E13">
-        <v>0.116</v>
+        <v>0.741</v>
       </c>
       <c r="F13">
-        <v>0.334</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2392,19 +2392,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.749</v>
+        <v>0.295</v>
       </c>
       <c r="C14">
-        <v>0.141</v>
+        <v>0.618</v>
       </c>
       <c r="D14">
-        <v>0.481</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F14">
-        <v>0.392</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2412,19 +2412,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.506</v>
+        <v>0.593</v>
       </c>
       <c r="C15">
-        <v>0.588</v>
+        <v>0.249</v>
       </c>
       <c r="D15">
-        <v>0.627</v>
+        <v>0.307</v>
       </c>
       <c r="E15">
-        <v>0.732</v>
+        <v>0.275</v>
       </c>
       <c r="F15">
-        <v>0.054</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2432,19 +2432,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.383</v>
+        <v>0.631</v>
       </c>
       <c r="C16">
-        <v>0.454</v>
+        <v>0.534</v>
       </c>
       <c r="D16">
-        <v>0.698</v>
+        <v>0.146</v>
       </c>
       <c r="E16">
-        <v>0.412</v>
+        <v>0.246</v>
       </c>
       <c r="F16">
-        <v>0.605</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2452,19 +2452,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.249</v>
+        <v>0.41</v>
       </c>
       <c r="C17">
-        <v>0.497</v>
+        <v>0.405</v>
       </c>
       <c r="D17">
-        <v>0.156</v>
+        <v>0.51</v>
       </c>
       <c r="E17">
-        <v>0.736</v>
+        <v>0.168</v>
       </c>
       <c r="F17">
-        <v>0.159</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2472,19 +2472,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.501</v>
+        <v>0.681</v>
       </c>
       <c r="C18">
-        <v>0.146</v>
+        <v>0.67</v>
       </c>
       <c r="D18">
-        <v>0.267</v>
+        <v>0.639</v>
       </c>
       <c r="E18">
-        <v>0.578</v>
+        <v>0.378</v>
       </c>
       <c r="F18">
-        <v>0.229</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2492,19 +2492,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.61</v>
+        <v>0.169</v>
       </c>
       <c r="C19">
-        <v>0.256</v>
+        <v>0.038</v>
       </c>
       <c r="D19">
-        <v>0.541</v>
+        <v>0.642</v>
       </c>
       <c r="E19">
-        <v>0.289</v>
+        <v>0.702</v>
       </c>
       <c r="F19">
-        <v>0.076</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2512,19 +2512,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09</v>
+        <v>0.395</v>
       </c>
       <c r="C20">
-        <v>0.378</v>
+        <v>0.929</v>
       </c>
       <c r="D20">
-        <v>0.78</v>
+        <v>0.705</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.463</v>
       </c>
       <c r="F20">
-        <v>0.37</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2532,19 +2532,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.409</v>
+        <v>0.463</v>
       </c>
       <c r="C21">
-        <v>0.469</v>
+        <v>0.74</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.959</v>
       </c>
       <c r="E21">
-        <v>0.29</v>
+        <v>0.358</v>
       </c>
       <c r="F21">
-        <v>0.293</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2552,19 +2552,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.459</v>
+        <v>0.628</v>
       </c>
       <c r="C22">
+        <v>0.474</v>
+      </c>
+      <c r="D22">
+        <v>0.652</v>
+      </c>
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="D22">
-        <v>0.725</v>
-      </c>
-      <c r="E22">
-        <v>0.663</v>
-      </c>
       <c r="F22">
-        <v>0.275</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2572,19 +2572,19 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <v>0.7</v>
+      </c>
+      <c r="C23">
         <v>0.2</v>
       </c>
-      <c r="C23">
-        <v>0.66</v>
-      </c>
       <c r="D23">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.243</v>
+        <v>0.12</v>
       </c>
       <c r="F23">
-        <v>0.267</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2592,19 +2592,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.138</v>
+        <v>0.465</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.829</v>
       </c>
       <c r="D24">
-        <v>0.625</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0.373</v>
       </c>
       <c r="F24">
-        <v>0.261</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2612,19 +2612,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.238</v>
+        <v>0.437</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>0.528</v>
+        <v>0.8</v>
       </c>
       <c r="E25">
-        <v>0.226</v>
+        <v>0.401</v>
       </c>
       <c r="F25">
-        <v>0.268</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2632,19 +2632,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.346</v>
+        <v>0.615</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.439</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>0.659</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0.507</v>
       </c>
       <c r="F26">
-        <v>0.262</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2652,19 +2652,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.148</v>
+        <v>0.402</v>
       </c>
       <c r="C27">
-        <v>0.673</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="F27">
-        <v>0.262</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2672,19 +2672,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.063</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C28">
-        <v>0.395</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
-        <v>0.74</v>
+        <v>0.481</v>
       </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.259</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2692,19 +2692,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="C29">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.853</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.611</v>
+        <v>0.465</v>
       </c>
       <c r="F29">
-        <v>0.322</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2712,19 +2712,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.652</v>
+        <v>0.378</v>
       </c>
       <c r="C30">
-        <v>0.101</v>
+        <v>0.8</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.946</v>
+        <v>0.439</v>
       </c>
       <c r="F30">
-        <v>0.36</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2732,19 +2732,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.712</v>
+        <v>0.583</v>
       </c>
       <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="D31">
-        <v>0.846</v>
-      </c>
-      <c r="E31">
-        <v>0.8</v>
-      </c>
       <c r="F31">
-        <v>0.234</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2752,19 +2752,19 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>0.671</v>
+      </c>
+      <c r="C32">
+        <v>0.963</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+      <c r="E32">
+        <v>0.382</v>
+      </c>
+      <c r="F32">
         <v>0.2</v>
-      </c>
-      <c r="C32">
-        <v>0.082</v>
-      </c>
-      <c r="D32">
-        <v>0.859</v>
-      </c>
-      <c r="E32">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="F32">
-        <v>0.183</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2772,19 +2772,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.307</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
+        <v>0.8</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>0.442</v>
+      </c>
+      <c r="F33">
         <v>0.2</v>
-      </c>
-      <c r="D33">
-        <v>0.832</v>
-      </c>
-      <c r="E33">
-        <v>0.421</v>
-      </c>
-      <c r="F33">
-        <v>0.412</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2792,19 +2792,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.43</v>
+        <v>0.338</v>
       </c>
       <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <v>0.456</v>
+      </c>
+      <c r="F34">
         <v>0.2</v>
-      </c>
-      <c r="D34">
-        <v>0.819</v>
-      </c>
-      <c r="E34">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="F34">
-        <v>0.035</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2812,19 +2812,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5639999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
+      <c r="E35">
+        <v>0.487</v>
+      </c>
+      <c r="F35">
         <v>0.2</v>
-      </c>
-      <c r="D35">
-        <v>0.8</v>
-      </c>
-      <c r="E35">
-        <v>0.4</v>
-      </c>
-      <c r="F35">
-        <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2832,19 +2832,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.314</v>
+        <v>0.29</v>
       </c>
       <c r="C36">
-        <v>0.074</v>
+        <v>0.85</v>
       </c>
       <c r="D36">
         <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.666</v>
+        <v>0.408</v>
       </c>
       <c r="F36">
-        <v>0.291</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2852,19 +2852,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.207</v>
+        <v>0.8</v>
       </c>
       <c r="C37">
-        <v>0.093</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.848</v>
+        <v>0.8</v>
       </c>
       <c r="E37">
-        <v>0.982</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
-        <v>0.394</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2872,19 +2872,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.898</v>
+        <v>0.725</v>
       </c>
       <c r="C38">
+        <v>0.8</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <v>0.307</v>
+      </c>
+      <c r="F38">
         <v>0.2</v>
-      </c>
-      <c r="D38">
-        <v>0.794</v>
-      </c>
-      <c r="E38">
-        <v>0.8</v>
-      </c>
-      <c r="F38">
-        <v>0.305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2892,19 +2892,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.822</v>
+        <v>0.708</v>
       </c>
       <c r="C39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.386</v>
       </c>
       <c r="F39">
-        <v>0.407</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2912,19 +2912,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8090000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="C40">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.269</v>
       </c>
       <c r="F40">
-        <v>0.259</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2932,19 +2932,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.647</v>
+        <v>0.651</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D41">
-        <v>0.763</v>
+        <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.8</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2952,19 +2952,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.884</v>
+        <v>0.706</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D42">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="F42">
-        <v>0.495</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2972,19 +2972,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.86</v>
+        <v>0.712</v>
       </c>
       <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.352</v>
+      </c>
+      <c r="F43">
         <v>0.2</v>
-      </c>
-      <c r="D43">
-        <v>0.983</v>
-      </c>
-      <c r="E43">
-        <v>0.8</v>
-      </c>
-      <c r="F43">
-        <v>0.011</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2992,19 +2992,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.834</v>
+        <v>0.669</v>
       </c>
       <c r="C44">
+        <v>0.8</v>
+      </c>
+      <c r="D44">
+        <v>0.8</v>
+      </c>
+      <c r="E44">
+        <v>0.271</v>
+      </c>
+      <c r="F44">
         <v>0.2</v>
-      </c>
-      <c r="D44">
-        <v>0.8</v>
-      </c>
-      <c r="E44">
-        <v>0.8</v>
-      </c>
-      <c r="F44">
-        <v>0.403</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3012,19 +3012,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.88</v>
+        <v>0.718</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D45">
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.505</v>
       </c>
       <c r="F45">
-        <v>0.341</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3032,19 +3032,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9</v>
+        <v>0.621</v>
       </c>
       <c r="C46">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.309</v>
       </c>
       <c r="F46">
-        <v>0.474</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -3442,19 +3442,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09</v>
+        <v>0.395</v>
       </c>
       <c r="C20">
-        <v>0.378</v>
+        <v>0.929</v>
       </c>
       <c r="D20">
-        <v>0.78</v>
+        <v>0.705</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.463</v>
       </c>
       <c r="F20">
-        <v>0.37</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.409</v>
+        <v>0.463</v>
       </c>
       <c r="C21">
-        <v>0.469</v>
+        <v>0.74</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.959</v>
       </c>
       <c r="E21">
-        <v>0.29</v>
+        <v>0.358</v>
       </c>
       <c r="F21">
-        <v>0.293</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.459</v>
+        <v>0.628</v>
       </c>
       <c r="C22">
+        <v>0.474</v>
+      </c>
+      <c r="D22">
+        <v>0.652</v>
+      </c>
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="D22">
-        <v>0.725</v>
-      </c>
-      <c r="E22">
-        <v>0.663</v>
-      </c>
       <c r="F22">
-        <v>0.275</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <v>0.7</v>
+      </c>
+      <c r="C23">
         <v>0.2</v>
       </c>
-      <c r="C23">
-        <v>0.66</v>
-      </c>
       <c r="D23">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.243</v>
+        <v>0.12</v>
       </c>
       <c r="F23">
-        <v>0.267</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.138</v>
+        <v>0.465</v>
       </c>
       <c r="C24">
-        <v>0.2</v>
+        <v>0.829</v>
       </c>
       <c r="D24">
-        <v>0.625</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E24">
-        <v>0.2</v>
+        <v>0.373</v>
       </c>
       <c r="F24">
-        <v>0.261</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.238</v>
+        <v>0.437</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D25">
-        <v>0.528</v>
+        <v>0.8</v>
       </c>
       <c r="E25">
-        <v>0.226</v>
+        <v>0.401</v>
       </c>
       <c r="F25">
-        <v>0.268</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.346</v>
+        <v>0.615</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.439</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>0.659</v>
       </c>
       <c r="E26">
-        <v>0.2</v>
+        <v>0.507</v>
       </c>
       <c r="F26">
-        <v>0.262</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.148</v>
+        <v>0.402</v>
       </c>
       <c r="C27">
-        <v>0.673</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="F27">
-        <v>0.262</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.063</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C28">
-        <v>0.395</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
-        <v>0.74</v>
+        <v>0.481</v>
       </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.259</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="C29">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0.853</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.611</v>
+        <v>0.465</v>
       </c>
       <c r="F29">
-        <v>0.322</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.652</v>
+        <v>0.378</v>
       </c>
       <c r="C30">
-        <v>0.101</v>
+        <v>0.8</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.946</v>
+        <v>0.439</v>
       </c>
       <c r="F30">
-        <v>0.36</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.712</v>
+        <v>0.583</v>
       </c>
       <c r="C31">
+        <v>0.8</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="D31">
-        <v>0.846</v>
-      </c>
-      <c r="E31">
-        <v>0.8</v>
-      </c>
       <c r="F31">
-        <v>0.234</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>30</v>
       </c>
       <c r="B32">
+        <v>0.671</v>
+      </c>
+      <c r="C32">
+        <v>0.963</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+      <c r="E32">
+        <v>0.382</v>
+      </c>
+      <c r="F32">
         <v>0.2</v>
-      </c>
-      <c r="C32">
-        <v>0.082</v>
-      </c>
-      <c r="D32">
-        <v>0.859</v>
-      </c>
-      <c r="E32">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="F32">
-        <v>0.183</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.307</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
+        <v>0.8</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>0.442</v>
+      </c>
+      <c r="F33">
         <v>0.2</v>
-      </c>
-      <c r="D33">
-        <v>0.832</v>
-      </c>
-      <c r="E33">
-        <v>0.421</v>
-      </c>
-      <c r="F33">
-        <v>0.412</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.43</v>
+        <v>0.338</v>
       </c>
       <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <v>0.456</v>
+      </c>
+      <c r="F34">
         <v>0.2</v>
-      </c>
-      <c r="D34">
-        <v>0.819</v>
-      </c>
-      <c r="E34">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="F34">
-        <v>0.035</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5639999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C35">
+        <v>0.8</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
+      <c r="E35">
+        <v>0.487</v>
+      </c>
+      <c r="F35">
         <v>0.2</v>
-      </c>
-      <c r="D35">
-        <v>0.8</v>
-      </c>
-      <c r="E35">
-        <v>0.4</v>
-      </c>
-      <c r="F35">
-        <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.314</v>
+        <v>0.29</v>
       </c>
       <c r="C36">
-        <v>0.074</v>
+        <v>0.85</v>
       </c>
       <c r="D36">
         <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.666</v>
+        <v>0.408</v>
       </c>
       <c r="F36">
-        <v>0.291</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.207</v>
+        <v>0.8</v>
       </c>
       <c r="C37">
-        <v>0.093</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.848</v>
+        <v>0.8</v>
       </c>
       <c r="E37">
-        <v>0.982</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
-        <v>0.394</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.898</v>
+        <v>0.725</v>
       </c>
       <c r="C38">
+        <v>0.8</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <v>0.307</v>
+      </c>
+      <c r="F38">
         <v>0.2</v>
-      </c>
-      <c r="D38">
-        <v>0.794</v>
-      </c>
-      <c r="E38">
-        <v>0.8</v>
-      </c>
-      <c r="F38">
-        <v>0.305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.822</v>
+        <v>0.708</v>
       </c>
       <c r="C39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
         <v>0.8</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.386</v>
       </c>
       <c r="F39">
-        <v>0.407</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8090000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="C40">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.835</v>
+        <v>0.8</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.269</v>
       </c>
       <c r="F40">
-        <v>0.259</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.647</v>
+        <v>0.651</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D41">
-        <v>0.763</v>
+        <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.8</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.884</v>
+        <v>0.706</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D42">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="F42">
-        <v>0.495</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.86</v>
+        <v>0.712</v>
       </c>
       <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.352</v>
+      </c>
+      <c r="F43">
         <v>0.2</v>
-      </c>
-      <c r="D43">
-        <v>0.983</v>
-      </c>
-      <c r="E43">
-        <v>0.8</v>
-      </c>
-      <c r="F43">
-        <v>0.011</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.834</v>
+        <v>0.669</v>
       </c>
       <c r="C44">
+        <v>0.8</v>
+      </c>
+      <c r="D44">
+        <v>0.8</v>
+      </c>
+      <c r="E44">
+        <v>0.271</v>
+      </c>
+      <c r="F44">
         <v>0.2</v>
-      </c>
-      <c r="D44">
-        <v>0.8</v>
-      </c>
-      <c r="E44">
-        <v>0.8</v>
-      </c>
-      <c r="F44">
-        <v>0.403</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.88</v>
+        <v>0.718</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D45">
         <v>0.8</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.505</v>
       </c>
       <c r="F45">
-        <v>0.341</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9</v>
+        <v>0.621</v>
       </c>
       <c r="C46">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.309</v>
       </c>
       <c r="F46">
-        <v>0.474</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.462</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.207</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.351</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.433</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.501</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.51</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.359</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.344</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.354</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.364</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.452</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.464</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.438</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.285</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.292</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.362</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.417</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.371</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.43</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.572</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5580000000000001</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.453</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.434</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.484</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.461</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.429</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.505</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.599</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.606</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.581</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.522</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.658</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.571</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.607</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.604</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.64</v>
+        <v>0.506</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.522</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.603</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.581</v>
+        <v>0.675</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.681</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.67</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.639</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.378</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.242</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9350000000000001</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.373</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.11</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.671</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.382</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.651</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5649999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -788,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.08699999999999999</v>
+        <v>0.134</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.881</v>
+        <v>0.617</v>
       </c>
       <c r="C2">
-        <v>0.202</v>
+        <v>0.785</v>
       </c>
       <c r="D2">
-        <v>0.593</v>
+        <v>0.794</v>
       </c>
       <c r="E2">
-        <v>0.197</v>
+        <v>0.644</v>
       </c>
       <c r="F2">
-        <v>0.676</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.765</v>
+        <v>0.348</v>
       </c>
       <c r="C3">
-        <v>0.319</v>
+        <v>0.005</v>
       </c>
       <c r="D3">
-        <v>0.317</v>
+        <v>0.118</v>
       </c>
       <c r="E3">
-        <v>0.29</v>
+        <v>0.761</v>
       </c>
       <c r="F3">
-        <v>0.026</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.474</v>
+        <v>0.878</v>
       </c>
       <c r="C4">
-        <v>0.477</v>
+        <v>0.766</v>
       </c>
       <c r="D4">
-        <v>0.641</v>
+        <v>0.291</v>
       </c>
       <c r="E4">
-        <v>0.9370000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="F4">
-        <v>0.549</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.35</v>
+        <v>0.303</v>
       </c>
       <c r="C5">
-        <v>0.823</v>
+        <v>0.22</v>
       </c>
       <c r="D5">
-        <v>0.002</v>
+        <v>0.743</v>
       </c>
       <c r="E5">
-        <v>0.483</v>
+        <v>0.173</v>
       </c>
       <c r="F5">
-        <v>0.448</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.778</v>
+        <v>0.99</v>
       </c>
       <c r="C6">
-        <v>0.302</v>
+        <v>0.717</v>
       </c>
       <c r="D6">
-        <v>0.351</v>
+        <v>0.598</v>
       </c>
       <c r="E6">
-        <v>0.282</v>
+        <v>0.197</v>
       </c>
       <c r="F6">
-        <v>0.405</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.834</v>
+        <v>0.327</v>
       </c>
       <c r="C7">
-        <v>0.717</v>
+        <v>0.844</v>
       </c>
       <c r="D7">
-        <v>0.114</v>
+        <v>0.456</v>
       </c>
       <c r="E7">
-        <v>0.206</v>
+        <v>0.755</v>
       </c>
       <c r="F7">
-        <v>0.894</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="C8">
-        <v>0.538</v>
+        <v>0.909</v>
       </c>
       <c r="D8">
-        <v>0.635</v>
+        <v>0.831</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>0.979</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.909</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>0.923</v>
+        <v>0.72</v>
       </c>
       <c r="D9">
-        <v>0.8179999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="E9">
-        <v>0.364</v>
+        <v>0.456</v>
       </c>
       <c r="F9">
-        <v>0.309</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.18</v>
+        <v>0.133</v>
       </c>
       <c r="C10">
-        <v>0.027</v>
+        <v>0.725</v>
       </c>
       <c r="D10">
-        <v>0.823</v>
+        <v>0.64</v>
       </c>
       <c r="E10">
-        <v>0.848</v>
+        <v>0.245</v>
       </c>
       <c r="F10">
-        <v>0.699</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.623</v>
+        <v>0.439</v>
       </c>
       <c r="C11">
-        <v>0.152</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D11">
-        <v>0.407</v>
+        <v>0.547</v>
       </c>
       <c r="E11">
-        <v>0.126</v>
+        <v>0.439</v>
       </c>
       <c r="F11">
-        <v>0.417</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.535</v>
+        <v>0.244</v>
       </c>
       <c r="C12">
-        <v>0.223</v>
+        <v>0.003</v>
       </c>
       <c r="D12">
-        <v>0.222</v>
+        <v>0.083</v>
       </c>
       <c r="E12">
-        <v>0.203</v>
+        <v>0.533</v>
       </c>
       <c r="F12">
-        <v>0.018</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.326</v>
+        <v>0.609</v>
       </c>
       <c r="C13">
-        <v>0.324</v>
+        <v>0.526</v>
       </c>
       <c r="D13">
-        <v>0.449</v>
+        <v>0.204</v>
       </c>
       <c r="E13">
-        <v>0.665</v>
+        <v>0.128</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.233</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>0.556</v>
+        <v>0.134</v>
       </c>
       <c r="D14">
-        <v>0.008</v>
+        <v>0.526</v>
       </c>
       <c r="E14">
-        <v>0.382</v>
+        <v>0.165</v>
       </c>
       <c r="F14">
-        <v>0.335</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.527</v>
+        <v>0.676</v>
       </c>
       <c r="C15">
-        <v>0.183</v>
+        <v>0.473</v>
       </c>
       <c r="D15">
-        <v>0.237</v>
+        <v>0.41</v>
       </c>
       <c r="E15">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F15">
-        <v>0.307</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5610000000000001</v>
+        <v>0.206</v>
       </c>
       <c r="C16">
-        <v>0.463</v>
+        <v>0.552</v>
       </c>
       <c r="D16">
-        <v>0.08</v>
+        <v>0.319</v>
       </c>
       <c r="E16">
-        <v>0.188</v>
+        <v>0.573</v>
       </c>
       <c r="F16">
-        <v>0.649</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.335</v>
+        <v>0.419</v>
       </c>
       <c r="C17">
-        <v>0.33</v>
+        <v>0.589</v>
       </c>
       <c r="D17">
-        <v>0.444</v>
+        <v>0.582</v>
       </c>
       <c r="E17">
-        <v>0.121</v>
+        <v>0.128</v>
       </c>
       <c r="F17">
-        <v>0.709</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.602</v>
+        <v>0.543</v>
       </c>
       <c r="C18">
-        <v>0.591</v>
+        <v>0.449</v>
       </c>
       <c r="D18">
-        <v>0.573</v>
+        <v>0.114</v>
       </c>
       <c r="E18">
-        <v>0.343</v>
+        <v>0.407</v>
       </c>
       <c r="F18">
-        <v>0.24</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.08599999999999999</v>
+        <v>0.053</v>
       </c>
       <c r="C19">
-        <v>-0.045</v>
+        <v>0.444</v>
       </c>
       <c r="D19">
-        <v>0.576</v>
+        <v>0.448</v>
       </c>
       <c r="E19">
-        <v>0.651</v>
+        <v>0.229</v>
       </c>
       <c r="F19">
-        <v>0.514</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.276</v>
+        <v>-0.204</v>
       </c>
       <c r="C20">
-        <v>0.73</v>
+        <v>-0.862</v>
       </c>
       <c r="D20">
-        <v>0.228</v>
+        <v>-0.147</v>
       </c>
       <c r="E20">
-        <v>0.25</v>
+        <v>-0.231</v>
       </c>
       <c r="F20">
-        <v>-0.389</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.125</v>
+        <v>0.139</v>
       </c>
       <c r="C21">
-        <v>0.465</v>
+        <v>1.125</v>
       </c>
       <c r="D21">
-        <v>0.671</v>
+        <v>0.952</v>
       </c>
       <c r="E21">
-        <v>0.074</v>
+        <v>-0.449</v>
       </c>
       <c r="F21">
-        <v>0.061</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.245</v>
+        <v>-0.521</v>
       </c>
       <c r="C22">
-        <v>0.093</v>
+        <v>-0.76</v>
       </c>
       <c r="D22">
-        <v>0.137</v>
+        <v>0.668</v>
       </c>
       <c r="E22">
-        <v>-1.046</v>
+        <v>0.551</v>
       </c>
       <c r="F22">
-        <v>-0.301</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.405</v>
+        <v>0.206</v>
       </c>
       <c r="C23">
-        <v>-0.749</v>
+        <v>0.635</v>
       </c>
       <c r="D23">
-        <v>1.181</v>
+        <v>-0.083</v>
       </c>
       <c r="E23">
-        <v>-0.32</v>
+        <v>0.495</v>
       </c>
       <c r="F23">
-        <v>-0.23</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.128</v>
+        <v>-0.653</v>
       </c>
       <c r="C24">
-        <v>0.58</v>
+        <v>-0.589</v>
       </c>
       <c r="D24">
-        <v>0.628</v>
+        <v>0.175</v>
       </c>
       <c r="E24">
-        <v>0.098</v>
+        <v>0.529</v>
       </c>
       <c r="F24">
-        <v>-0.201</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.194</v>
+        <v>0.185</v>
       </c>
       <c r="C25">
-        <v>-0.434</v>
+        <v>-0.882</v>
       </c>
       <c r="D25">
-        <v>1.005</v>
+        <v>0.397</v>
       </c>
       <c r="E25">
-        <v>0.155</v>
+        <v>-0.503</v>
       </c>
       <c r="F25">
-        <v>-0.538</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.205</v>
+        <v>-0.204</v>
       </c>
       <c r="C26">
-        <v>0.034</v>
+        <v>-1.023</v>
       </c>
       <c r="D26">
-        <v>0.149</v>
+        <v>-0.221</v>
       </c>
       <c r="E26">
-        <v>0.339</v>
+        <v>0.606</v>
       </c>
       <c r="F26">
-        <v>-0.597</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.279</v>
+        <v>-0.432</v>
       </c>
       <c r="C27">
-        <v>-0.91</v>
+        <v>-0.529</v>
       </c>
       <c r="D27">
-        <v>-0.154</v>
+        <v>0.879</v>
       </c>
       <c r="E27">
-        <v>-0.18</v>
+        <v>-0.053</v>
       </c>
       <c r="F27">
-        <v>-0.134</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.641</v>
+        <v>0.442</v>
       </c>
       <c r="C28">
-        <v>1.362</v>
+        <v>-0.52</v>
       </c>
       <c r="D28">
-        <v>-0.161</v>
+        <v>0.094</v>
       </c>
       <c r="E28">
-        <v>-0.964</v>
+        <v>0.352</v>
       </c>
       <c r="F28">
-        <v>-0.404</v>
+        <v>-0.506</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1</v>
+        <v>0.103</v>
       </c>
       <c r="C29">
-        <v>0.306</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D29">
-        <v>0.639</v>
+        <v>-0.028</v>
       </c>
       <c r="E29">
-        <v>0.002</v>
+        <v>0.65</v>
       </c>
       <c r="F29">
-        <v>-0.318</v>
+        <v>-0.138</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C30">
-        <v>0.508</v>
+        <v>0.851</v>
       </c>
       <c r="D30">
-        <v>0.42</v>
+        <v>0.054</v>
       </c>
       <c r="E30">
-        <v>0.081</v>
+        <v>0.747</v>
       </c>
       <c r="F30">
-        <v>0.031</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.045</v>
+        <v>0.065</v>
       </c>
       <c r="C31">
-        <v>0.792</v>
+        <v>0.759</v>
       </c>
       <c r="D31">
-        <v>0.6850000000000001</v>
+        <v>-0.432</v>
       </c>
       <c r="E31">
-        <v>-0.4</v>
+        <v>0.315</v>
       </c>
       <c r="F31">
-        <v>-0.215</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.029</v>
+        <v>0.144</v>
       </c>
       <c r="C32">
-        <v>0.763</v>
+        <v>0.444</v>
       </c>
       <c r="D32">
-        <v>1.108</v>
+        <v>-0.058</v>
       </c>
       <c r="E32">
-        <v>0.262</v>
+        <v>0.346</v>
       </c>
       <c r="F32">
-        <v>-0.162</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.09</v>
+        <v>0.047</v>
       </c>
       <c r="C33">
-        <v>0.406</v>
+        <v>0.879</v>
       </c>
       <c r="D33">
-        <v>0.44</v>
+        <v>-0.188</v>
       </c>
       <c r="E33">
-        <v>0.06900000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F33">
-        <v>-0.141</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.099</v>
+        <v>0.139</v>
       </c>
       <c r="C34">
-        <v>1.188</v>
+        <v>0.674</v>
       </c>
       <c r="D34">
-        <v>0.985</v>
+        <v>-0.297</v>
       </c>
       <c r="E34">
-        <v>0.055</v>
+        <v>0.78</v>
       </c>
       <c r="F34">
-        <v>-0.378</v>
+        <v>-0.355</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.056</v>
+        <v>0.094</v>
       </c>
       <c r="C35">
-        <v>0.822</v>
+        <v>0.575</v>
       </c>
       <c r="D35">
-        <v>0.679</v>
+        <v>0.01</v>
       </c>
       <c r="E35">
-        <v>-0.02</v>
+        <v>0.303</v>
       </c>
       <c r="F35">
-        <v>-0.42</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.112</v>
+        <v>0.067</v>
       </c>
       <c r="C36">
-        <v>0.65</v>
+        <v>0.921</v>
       </c>
       <c r="D36">
-        <v>0.829</v>
+        <v>0.003</v>
       </c>
       <c r="E36">
-        <v>0.21</v>
+        <v>0.594</v>
       </c>
       <c r="F36">
-        <v>-0.093</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.01</v>
+        <v>0.163</v>
       </c>
       <c r="C37">
-        <v>1.013</v>
+        <v>1.322</v>
       </c>
       <c r="D37">
-        <v>0.833</v>
+        <v>-0.147</v>
       </c>
       <c r="E37">
-        <v>-0.343</v>
+        <v>0.411</v>
       </c>
       <c r="F37">
-        <v>-0.283</v>
+        <v>-0.355</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.43</v>
+        <v>0.325</v>
       </c>
       <c r="C38">
-        <v>0.548</v>
+        <v>0.302</v>
       </c>
       <c r="D38">
-        <v>0.447</v>
+        <v>0.838</v>
       </c>
       <c r="E38">
-        <v>-0.158</v>
+        <v>0.392</v>
       </c>
       <c r="F38">
-        <v>-0.223</v>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.33</v>
+        <v>0.098</v>
       </c>
       <c r="C39">
-        <v>0.6889999999999999</v>
+        <v>0.596</v>
       </c>
       <c r="D39">
-        <v>0.294</v>
+        <v>0.038</v>
       </c>
       <c r="E39">
-        <v>-0.053</v>
+        <v>0.523</v>
       </c>
       <c r="F39">
-        <v>0.035</v>
+        <v>-0.097</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.08599999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="C40">
-        <v>0.888</v>
+        <v>0.206</v>
       </c>
       <c r="D40">
-        <v>0.479</v>
+        <v>0.422</v>
       </c>
       <c r="E40">
-        <v>0.06900000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="F40">
-        <v>-0.15</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.02</v>
+        <v>0.053</v>
       </c>
       <c r="C41">
-        <v>0.534</v>
+        <v>0.311</v>
       </c>
       <c r="D41">
-        <v>0.776</v>
+        <v>0.805</v>
       </c>
       <c r="E41">
-        <v>0.183</v>
+        <v>0.457</v>
       </c>
       <c r="F41">
-        <v>-0.113</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.331</v>
+        <v>0.618</v>
       </c>
       <c r="C42">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="D42">
-        <v>0.308</v>
+        <v>0.674</v>
       </c>
       <c r="E42">
-        <v>-0.067</v>
+        <v>0.439</v>
       </c>
       <c r="F42">
-        <v>-0.099</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.374</v>
+        <v>0.065</v>
       </c>
       <c r="C43">
-        <v>1.165</v>
+        <v>0.32</v>
       </c>
       <c r="D43">
-        <v>0.6899999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E43">
-        <v>-0.104</v>
+        <v>0.554</v>
       </c>
       <c r="F43">
-        <v>-0.265</v>
+        <v>-0.299</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.11</v>
+        <v>0.321</v>
       </c>
       <c r="C44">
-        <v>0.909</v>
+        <v>0.454</v>
       </c>
       <c r="D44">
-        <v>0.475</v>
+        <v>0.876</v>
       </c>
       <c r="E44">
-        <v>-0.216</v>
+        <v>0.427</v>
       </c>
       <c r="F44">
-        <v>-0.294</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.428</v>
+        <v>0.471</v>
       </c>
       <c r="C45">
-        <v>0.6860000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="D45">
-        <v>0.58</v>
+        <v>0.108</v>
       </c>
       <c r="E45">
-        <v>0.097</v>
+        <v>0.28</v>
       </c>
       <c r="F45">
-        <v>0.014</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.179</v>
+        <v>-0.105</v>
       </c>
       <c r="C46">
-        <v>1.043</v>
+        <v>0.925</v>
       </c>
       <c r="D46">
-        <v>0.583</v>
+        <v>0.716</v>
       </c>
       <c r="E46">
-        <v>0.109</v>
+        <v>0.503</v>
       </c>
       <c r="F46">
-        <v>-0.198</v>
+        <v>-0.299</v>
       </c>
     </row>
   </sheetData>
@@ -2332,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.671</v>
+        <v>0.487</v>
       </c>
       <c r="C11">
-        <v>0.199</v>
+        <v>0.607</v>
       </c>
       <c r="D11">
-        <v>0.477</v>
+        <v>0.617</v>
       </c>
       <c r="E11">
-        <v>0.213</v>
+        <v>0.526</v>
       </c>
       <c r="F11">
-        <v>0.607</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2352,19 +2352,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.588</v>
+        <v>0.297</v>
       </c>
       <c r="C12">
-        <v>0.275</v>
+        <v>0.055</v>
       </c>
       <c r="D12">
-        <v>0.288</v>
+        <v>0.149</v>
       </c>
       <c r="E12">
-        <v>0.284</v>
+        <v>0.614</v>
       </c>
       <c r="F12">
-        <v>0.076</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2372,19 +2372,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.383</v>
+        <v>0.666</v>
       </c>
       <c r="C13">
-        <v>0.381</v>
+        <v>0.583</v>
       </c>
       <c r="D13">
-        <v>0.515</v>
+        <v>0.27</v>
       </c>
       <c r="E13">
-        <v>0.741</v>
+        <v>0.204</v>
       </c>
       <c r="F13">
-        <v>0.422</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2392,19 +2392,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.295</v>
+        <v>0.262</v>
       </c>
       <c r="C14">
-        <v>0.618</v>
+        <v>0.196</v>
       </c>
       <c r="D14">
-        <v>0.07099999999999999</v>
+        <v>0.589</v>
       </c>
       <c r="E14">
-        <v>0.44</v>
+        <v>0.223</v>
       </c>
       <c r="F14">
-        <v>0.342</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2412,19 +2412,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.593</v>
+        <v>0.742</v>
       </c>
       <c r="C15">
-        <v>0.249</v>
+        <v>0.539</v>
       </c>
       <c r="D15">
-        <v>0.307</v>
+        <v>0.48</v>
       </c>
       <c r="E15">
-        <v>0.275</v>
+        <v>0.215</v>
       </c>
       <c r="F15">
-        <v>0.311</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2432,19 +2432,19 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>0.276</v>
+      </c>
+      <c r="C16">
+        <v>0.623</v>
+      </c>
+      <c r="D16">
+        <v>0.385</v>
+      </c>
+      <c r="E16">
         <v>0.631</v>
       </c>
-      <c r="C16">
-        <v>0.534</v>
-      </c>
-      <c r="D16">
-        <v>0.146</v>
-      </c>
-      <c r="E16">
-        <v>0.246</v>
-      </c>
       <c r="F16">
-        <v>0.652</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2452,19 +2452,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.41</v>
+        <v>0.494</v>
       </c>
       <c r="C17">
-        <v>0.405</v>
+        <v>0.664</v>
       </c>
       <c r="D17">
-        <v>0.51</v>
+        <v>0.648</v>
       </c>
       <c r="E17">
-        <v>0.168</v>
+        <v>0.175</v>
       </c>
       <c r="F17">
-        <v>0.711</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2472,19 +2472,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.681</v>
+        <v>0.622</v>
       </c>
       <c r="C18">
-        <v>0.67</v>
+        <v>0.528</v>
       </c>
       <c r="D18">
-        <v>0.639</v>
+        <v>0.18</v>
       </c>
       <c r="E18">
-        <v>0.378</v>
+        <v>0.442</v>
       </c>
       <c r="F18">
-        <v>0.242</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2492,19 +2492,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.169</v>
+        <v>0.136</v>
       </c>
       <c r="C19">
-        <v>0.038</v>
+        <v>0.527</v>
       </c>
       <c r="D19">
-        <v>0.642</v>
+        <v>0.514</v>
       </c>
       <c r="E19">
-        <v>0.702</v>
+        <v>0.28</v>
       </c>
       <c r="F19">
-        <v>0.514</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2512,19 +2512,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.395</v>
+        <v>0.283</v>
       </c>
       <c r="C20">
-        <v>0.929</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.705</v>
+        <v>0.47</v>
       </c>
       <c r="E20">
-        <v>0.463</v>
+        <v>0.295</v>
       </c>
       <c r="F20">
-        <v>0.218</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2532,19 +2532,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.463</v>
+        <v>0.436</v>
       </c>
       <c r="C21">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="D21">
-        <v>0.959</v>
+        <v>0.8</v>
       </c>
       <c r="E21">
-        <v>0.358</v>
+        <v>0.165</v>
       </c>
       <c r="F21">
-        <v>0.137</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2552,19 +2552,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.628</v>
+        <v>0.145</v>
       </c>
       <c r="C22">
-        <v>0.474</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <v>0.652</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.755</v>
       </c>
       <c r="F22">
-        <v>0.121</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2572,19 +2572,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <v>0.468</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
+        <v>0.831</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.506</v>
       </c>
       <c r="E23">
-        <v>0.12</v>
+        <v>0.718</v>
       </c>
       <c r="F23">
-        <v>0.112</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2592,19 +2592,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.465</v>
+        <v>0.089</v>
       </c>
       <c r="C24">
-        <v>0.829</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.9350000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="E24">
-        <v>0.373</v>
+        <v>0.744</v>
       </c>
       <c r="F24">
-        <v>0.11</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2612,19 +2612,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.437</v>
+        <v>0.461</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.8</v>
+        <v>0.782</v>
       </c>
       <c r="E25">
-        <v>0.401</v>
+        <v>0.128</v>
       </c>
       <c r="F25">
-        <v>0.114</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2632,19 +2632,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.615</v>
+        <v>0.29</v>
       </c>
       <c r="C26">
-        <v>0.439</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.659</v>
+        <v>0.427</v>
       </c>
       <c r="E26">
-        <v>0.507</v>
+        <v>0.781</v>
       </c>
       <c r="F26">
-        <v>0.114</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2652,19 +2652,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.402</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.485</v>
+        <v>0.8</v>
       </c>
       <c r="E27">
-        <v>0.198</v>
+        <v>0.389</v>
       </c>
       <c r="F27">
-        <v>0.108</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2672,19 +2672,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8100000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.007</v>
       </c>
       <c r="D28">
-        <v>0.481</v>
+        <v>0.608</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.632</v>
       </c>
       <c r="F28">
-        <v>0.11</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2692,19 +2692,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.295</v>
+        <v>0.386</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.888</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.442</v>
       </c>
       <c r="E29">
-        <v>0.465</v>
+        <v>0.945</v>
       </c>
       <c r="F29">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2712,19 +2712,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.378</v>
+        <v>0.576</v>
       </c>
       <c r="C30">
         <v>0.8</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.854</v>
       </c>
       <c r="E30">
-        <v>0.439</v>
+        <v>0.912</v>
       </c>
       <c r="F30">
-        <v>0.168</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2732,19 +2732,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.583</v>
+        <v>0.21</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.959</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>0.506</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.2</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2752,19 +2752,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.671</v>
+        <v>0.612</v>
       </c>
       <c r="C32">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.448</v>
       </c>
       <c r="E32">
-        <v>0.382</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2772,19 +2772,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.136</v>
       </c>
       <c r="C33">
         <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.467</v>
       </c>
       <c r="E33">
-        <v>0.442</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2792,16 +2792,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.338</v>
+        <v>0.6</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.874</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
       <c r="E34">
-        <v>0.456</v>
+        <v>0.908</v>
       </c>
       <c r="F34">
         <v>0.2</v>
@@ -2812,19 +2812,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5590000000000001</v>
+        <v>0.384</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>0.437</v>
       </c>
       <c r="E35">
-        <v>0.487</v>
+        <v>0.8</v>
       </c>
       <c r="F35">
-        <v>0.2</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2832,19 +2832,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.29</v>
+        <v>0.257</v>
       </c>
       <c r="C36">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="E36">
-        <v>0.408</v>
+        <v>0.983</v>
       </c>
       <c r="F36">
-        <v>0.015</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2852,16 +2852,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.741</v>
       </c>
       <c r="C37">
         <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.461</v>
       </c>
       <c r="E37">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.725</v>
+        <v>0.711</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -2881,10 +2881,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.307</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2892,19 +2892,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.708</v>
+        <v>0.674</v>
       </c>
       <c r="C39">
         <v>0.8</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.892</v>
       </c>
       <c r="E39">
-        <v>0.386</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.203</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2912,19 +2912,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.669</v>
+        <v>0.742</v>
       </c>
       <c r="C40">
         <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>0.928</v>
       </c>
       <c r="E40">
-        <v>0.269</v>
+        <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.05</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2932,7 +2932,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.651</v>
+        <v>0.665</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -2941,10 +2941,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.5649999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.08699999999999999</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2952,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.706</v>
+        <v>0.754</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -2961,10 +2961,10 @@
         <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.101</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2972,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.712</v>
+        <v>0.665</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -2981,7 +2981,7 @@
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.352</v>
+        <v>0.8</v>
       </c>
       <c r="F43">
         <v>0.2</v>
@@ -2992,7 +2992,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.669</v>
+        <v>0.705</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3001,10 +3001,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.271</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3012,19 +3012,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.718</v>
+        <v>0.728</v>
       </c>
       <c r="C45">
         <v>0.8</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>0.911</v>
       </c>
       <c r="E45">
-        <v>0.505</v>
+        <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.029</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3032,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.621</v>
+        <v>0.636</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3041,10 +3041,10 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.309</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.002</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3442,19 +3442,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.395</v>
+        <v>0.283</v>
       </c>
       <c r="C20">
-        <v>0.929</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.705</v>
+        <v>0.47</v>
       </c>
       <c r="E20">
-        <v>0.463</v>
+        <v>0.295</v>
       </c>
       <c r="F20">
-        <v>0.218</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.463</v>
+        <v>0.436</v>
       </c>
       <c r="C21">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="D21">
-        <v>0.959</v>
+        <v>0.8</v>
       </c>
       <c r="E21">
-        <v>0.358</v>
+        <v>0.165</v>
       </c>
       <c r="F21">
-        <v>0.137</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.628</v>
+        <v>0.145</v>
       </c>
       <c r="C22">
-        <v>0.474</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <v>0.652</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.755</v>
       </c>
       <c r="F22">
-        <v>0.121</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <v>0.468</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
+        <v>0.831</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.506</v>
       </c>
       <c r="E23">
-        <v>0.12</v>
+        <v>0.718</v>
       </c>
       <c r="F23">
-        <v>0.112</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.465</v>
+        <v>0.089</v>
       </c>
       <c r="C24">
-        <v>0.829</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.9350000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="E24">
-        <v>0.373</v>
+        <v>0.744</v>
       </c>
       <c r="F24">
-        <v>0.11</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.437</v>
+        <v>0.461</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.8</v>
+        <v>0.782</v>
       </c>
       <c r="E25">
-        <v>0.401</v>
+        <v>0.128</v>
       </c>
       <c r="F25">
-        <v>0.114</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.615</v>
+        <v>0.29</v>
       </c>
       <c r="C26">
-        <v>0.439</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.659</v>
+        <v>0.427</v>
       </c>
       <c r="E26">
-        <v>0.507</v>
+        <v>0.781</v>
       </c>
       <c r="F26">
-        <v>0.114</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.402</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.485</v>
+        <v>0.8</v>
       </c>
       <c r="E27">
-        <v>0.198</v>
+        <v>0.389</v>
       </c>
       <c r="F27">
-        <v>0.108</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8100000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.007</v>
       </c>
       <c r="D28">
-        <v>0.481</v>
+        <v>0.608</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.632</v>
       </c>
       <c r="F28">
-        <v>0.11</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.295</v>
+        <v>0.386</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>0.888</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.442</v>
       </c>
       <c r="E29">
-        <v>0.465</v>
+        <v>0.945</v>
       </c>
       <c r="F29">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.378</v>
+        <v>0.576</v>
       </c>
       <c r="C30">
         <v>0.8</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.854</v>
       </c>
       <c r="E30">
-        <v>0.439</v>
+        <v>0.912</v>
       </c>
       <c r="F30">
-        <v>0.168</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.583</v>
+        <v>0.21</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.959</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>0.506</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.2</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.671</v>
+        <v>0.612</v>
       </c>
       <c r="C32">
-        <v>0.963</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.448</v>
       </c>
       <c r="E32">
-        <v>0.382</v>
+        <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.136</v>
       </c>
       <c r="C33">
         <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.467</v>
       </c>
       <c r="E33">
-        <v>0.442</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3722,16 +3722,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.338</v>
+        <v>0.6</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.874</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.485</v>
       </c>
       <c r="E34">
-        <v>0.456</v>
+        <v>0.908</v>
       </c>
       <c r="F34">
         <v>0.2</v>
@@ -3742,19 +3742,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5590000000000001</v>
+        <v>0.384</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>0.437</v>
       </c>
       <c r="E35">
-        <v>0.487</v>
+        <v>0.8</v>
       </c>
       <c r="F35">
-        <v>0.2</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.29</v>
+        <v>0.257</v>
       </c>
       <c r="C36">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="E36">
-        <v>0.408</v>
+        <v>0.983</v>
       </c>
       <c r="F36">
-        <v>0.015</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3782,16 +3782,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>0.741</v>
       </c>
       <c r="C37">
         <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.461</v>
       </c>
       <c r="E37">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.725</v>
+        <v>0.711</v>
       </c>
       <c r="C38">
         <v>0.8</v>
@@ -3811,10 +3811,10 @@
         <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.307</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.708</v>
+        <v>0.674</v>
       </c>
       <c r="C39">
         <v>0.8</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.892</v>
       </c>
       <c r="E39">
-        <v>0.386</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.203</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.669</v>
+        <v>0.742</v>
       </c>
       <c r="C40">
         <v>0.8</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>0.928</v>
       </c>
       <c r="E40">
-        <v>0.269</v>
+        <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.05</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3862,7 +3862,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.651</v>
+        <v>0.665</v>
       </c>
       <c r="C41">
         <v>0.8</v>
@@ -3871,10 +3871,10 @@
         <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.5649999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.08699999999999999</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3882,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.706</v>
+        <v>0.754</v>
       </c>
       <c r="C42">
         <v>0.8</v>
@@ -3891,10 +3891,10 @@
         <v>0.8</v>
       </c>
       <c r="E42">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.101</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3902,7 +3902,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.712</v>
+        <v>0.665</v>
       </c>
       <c r="C43">
         <v>0.8</v>
@@ -3911,7 +3911,7 @@
         <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.352</v>
+        <v>0.8</v>
       </c>
       <c r="F43">
         <v>0.2</v>
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.669</v>
+        <v>0.705</v>
       </c>
       <c r="C44">
         <v>0.8</v>
@@ -3931,10 +3931,10 @@
         <v>0.8</v>
       </c>
       <c r="E44">
-        <v>0.271</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.718</v>
+        <v>0.728</v>
       </c>
       <c r="C45">
         <v>0.8</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>0.911</v>
       </c>
       <c r="E45">
-        <v>0.505</v>
+        <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.029</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3962,7 +3962,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.621</v>
+        <v>0.636</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -3971,10 +3971,10 @@
         <v>0.8</v>
       </c>
       <c r="E46">
-        <v>0.309</v>
+        <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.002</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.433</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.488</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.353</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.347</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.442</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.441</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.522</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.413</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.542</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.531</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.415</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.386</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.542</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.37</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.467</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.279</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.48</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.512</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.517</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.517</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.603</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.523</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.519</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.569</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.473</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5659999999999999</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.579</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.518</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.581</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.556</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.573</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.548</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.57</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.506</v>
+        <v>0.647</v>
       </c>
     </row>
   </sheetData>
